--- a/RMUTL_WORK/Teaching work/2025/เทอม_02/ENGCE121_Computer Architecture and Organization/SCORE_121.xlsx
+++ b/RMUTL_WORK/Teaching work/2025/เทอม_02/ENGCE121_Computer Architecture and Organization/SCORE_121.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LOBSTER69\Documents\GitHub\WORK\RMUTL_WORK\Teaching work\2025\เทอม_02\ENGCE121_Computer Architecture and Organization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F30B873-3674-404E-BE47-4F7ED63CF85E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3AF02BC-3E75-46B8-A1B8-3B5E6F90CB44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -121,7 +121,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -131,14 +131,6 @@
       <b/>
       <sz val="16"/>
       <color rgb="FF000000"/>
-      <name val="TH SarabunPSK"/>
-      <family val="2"/>
-      <charset val="222"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
-      <color rgb="FFFF0000"/>
       <name val="TH SarabunPSK"/>
       <family val="2"/>
       <charset val="222"/>
@@ -159,7 +151,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -210,17 +202,53 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -233,13 +261,19 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -549,7 +583,7 @@
   <dimension ref="A1:R12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="24" x14ac:dyDescent="0.8"/>
@@ -575,205 +609,207 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.8">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="9"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.8">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9"/>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="9"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.8">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
-      <c r="O3" s="9"/>
-      <c r="P3" s="9"/>
-      <c r="Q3" s="9"/>
-      <c r="R3" s="9"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.8">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
-      <c r="O4" s="9"/>
-      <c r="P4" s="9"/>
-      <c r="Q4" s="9"/>
-      <c r="R4" s="9"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.8">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10" t="s">
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10" t="s">
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="O5" s="10" t="s">
+      <c r="O5" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="P5" s="10" t="s">
+      <c r="P5" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="Q5" s="10" t="s">
+      <c r="Q5" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="R5" s="10" t="s">
+      <c r="R5" s="8" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.8">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="10"/>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="10"/>
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.8">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="4" t="s">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="I7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J7" s="4" t="s">
+      <c r="J7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K7" s="4" t="s">
+      <c r="K7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="L7" s="4" t="s">
+      <c r="L7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="M7" s="4" t="s">
+      <c r="M7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="N7" s="10"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="10"/>
-      <c r="Q7" s="10"/>
-      <c r="R7" s="10"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="8"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.8">
-      <c r="A8" s="7">
+      <c r="A8" s="6">
         <v>1</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
+      <c r="D8" s="9">
+        <v>10</v>
+      </c>
+      <c r="E8" s="10"/>
       <c r="F8" s="2">
         <v>3.6</v>
       </c>
@@ -783,34 +819,40 @@
       <c r="H8" s="2">
         <v>5</v>
       </c>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
+      <c r="I8" s="11">
+        <v>10</v>
+      </c>
+      <c r="J8" s="10"/>
       <c r="K8" s="2">
         <v>3.8</v>
       </c>
       <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
+      <c r="M8" s="2">
+        <v>5</v>
+      </c>
       <c r="N8" s="2">
         <f>SUM(D8:M8)</f>
-        <v>15.600000000000001</v>
+        <v>40.6</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
-      <c r="R8" s="4"/>
+      <c r="R8" s="3"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.8">
-      <c r="A9" s="7">
+      <c r="A9" s="6">
         <v>2</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
+      <c r="D9" s="9">
+        <v>10</v>
+      </c>
+      <c r="E9" s="10"/>
       <c r="F9" s="2">
         <v>3.3</v>
       </c>
@@ -820,34 +862,40 @@
       <c r="H9" s="2">
         <v>5</v>
       </c>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
+      <c r="I9" s="11">
+        <v>10</v>
+      </c>
+      <c r="J9" s="10"/>
       <c r="K9" s="2">
         <v>4.5999999999999996</v>
       </c>
       <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
+      <c r="M9" s="2">
+        <v>5</v>
+      </c>
       <c r="N9" s="2">
         <f>SUM(D9:M9)</f>
-        <v>21.1</v>
+        <v>46.1</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
-      <c r="R9" s="4"/>
+      <c r="R9" s="3"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.8">
-      <c r="A10" s="7">
+      <c r="A10" s="6">
         <v>3</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="8"/>
+      <c r="D10" s="9">
+        <v>10</v>
+      </c>
+      <c r="E10" s="10"/>
       <c r="F10" s="2">
         <v>5.4</v>
       </c>
@@ -857,33 +905,37 @@
       <c r="H10" s="2">
         <v>3</v>
       </c>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
+      <c r="I10" s="11">
+        <v>10</v>
+      </c>
+      <c r="J10" s="10"/>
       <c r="K10" s="2">
         <v>3.4</v>
       </c>
       <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
+      <c r="M10" s="2">
+        <v>5</v>
+      </c>
       <c r="N10" s="2">
         <f>SUM(D10:M10)</f>
-        <v>20.75</v>
+        <v>45.75</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
-      <c r="R10" s="4"/>
+      <c r="R10" s="3"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.8">
-      <c r="M11" s="5" t="s">
+      <c r="M11" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="N11" s="6">
+      <c r="N11" s="5">
         <f>AVERAGE(N8:N10)</f>
-        <v>19.150000000000002</v>
+        <v>44.15</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.8">
-      <c r="M12" s="4" t="s">
+      <c r="M12" s="3" t="s">
         <v>15</v>
       </c>
       <c r="N12" s="2">
@@ -893,7 +945,13 @@
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <mergeCells count="14">
+  <mergeCells count="20">
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I10:J10"/>
     <mergeCell ref="A1:R1"/>
     <mergeCell ref="A2:R2"/>
     <mergeCell ref="A3:R3"/>
